--- a/public/sertifikat/format-data-sertifikat.xlsx
+++ b/public/sertifikat/format-data-sertifikat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Intern-Management-Web\public\sertifikat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{300D37F1-C84C-427E-8FE4-3132BA284FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1375CBE3-D502-42E3-A57D-12FF975470A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DBC70697-3110-4D85-A473-EBF444C304C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>No.</t>
   </si>
@@ -33,24 +33,6 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>Tempat Lahir</t>
-  </si>
-  <si>
-    <t>Tanggal Lahir</t>
-  </si>
-  <si>
-    <t>Program Keahlian</t>
-  </si>
-  <si>
-    <t>Kompetensi Keahlian</t>
-  </si>
-  <si>
-    <t>Nama Instansi</t>
-  </si>
-  <si>
-    <t>Alamat Instansi</t>
-  </si>
-  <si>
     <t>Tanggal Mulai</t>
   </si>
   <si>
@@ -66,9 +48,6 @@
     <t>Zainab Aqilah</t>
   </si>
   <si>
-    <t>Tanjung Karang</t>
-  </si>
-  <si>
     <t>Kelas/Semester</t>
   </si>
   <si>
@@ -78,22 +57,16 @@
     <t>Rekayasa Perangkat Lunak</t>
   </si>
   <si>
-    <t>Pemrograman</t>
-  </si>
-  <si>
     <t>Sekolah/Perguruan Tinggi</t>
   </si>
   <si>
     <t>Universitas Lampung</t>
   </si>
   <si>
-    <t>Badan Pusat Statistik Kota Bandar Lampung</t>
-  </si>
-  <si>
-    <t>Jl. Sultan Syahril No.30, Pahoman, Engal, Kota Bandar Lampung, Lampung 35213</t>
-  </si>
-  <si>
     <t>1 Bulan 16 Hari</t>
+  </si>
+  <si>
+    <t>Jurusan</t>
   </si>
 </sst>
 </file>
@@ -150,16 +123,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74710EFF-C69E-4B4C-BE5E-23A93BF98C3D}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,11 +460,11 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
     <col min="10" max="10" width="39.28515625" customWidth="1"/>
     <col min="11" max="11" width="39.140625" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" customWidth="1"/>
@@ -502,67 +472,47 @@
     <col min="14" max="14" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+    <row r="2" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -570,58 +520,38 @@
         <v>2217051149</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45824</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45870</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2">
-        <v>37812</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="2">
-        <v>45824</v>
-      </c>
-      <c r="M3" s="2">
-        <v>45870</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="9">
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/sertifikat/format-data-sertifikat.xlsx
+++ b/public/sertifikat/format-data-sertifikat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Intern-Management-Web\public\sertifikat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1375CBE3-D502-42E3-A57D-12FF975470A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D5D418-22A8-4383-BD50-6DEF6192D22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DBC70697-3110-4D85-A473-EBF444C304C7}"/>
   </bookViews>
@@ -51,12 +51,6 @@
     <t>Kelas/Semester</t>
   </si>
   <si>
-    <t>Semester 6</t>
-  </si>
-  <si>
-    <t>Rekayasa Perangkat Lunak</t>
-  </si>
-  <si>
     <t>Sekolah/Perguruan Tinggi</t>
   </si>
   <si>
@@ -66,7 +60,13 @@
     <t>1 Bulan 16 Hari</t>
   </si>
   <si>
-    <t>Jurusan</t>
+    <t>Prodi</t>
+  </si>
+  <si>
+    <t>Ilmu Komputer</t>
+  </si>
+  <si>
+    <t>Semester 7</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,10 +486,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -523,13 +523,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G3" s="2">
         <v>45824</v>
@@ -538,20 +538,20 @@
         <v>45870</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/sertifikat/format-data-sertifikat.xlsx
+++ b/public/sertifikat/format-data-sertifikat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Intern-Management-Web\public\sertifikat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\assets\KP\Projekan\magnet\public\sertifikat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D5D418-22A8-4383-BD50-6DEF6192D22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44149DE9-125D-4781-96D8-64DE5685BB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DBC70697-3110-4D85-A473-EBF444C304C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBC70697-3110-4D85-A473-EBF444C304C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>No.</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Zainab Aqilah</t>
   </si>
   <si>
-    <t>Kelas/Semester</t>
-  </si>
-  <si>
     <t>Sekolah/Perguruan Tinggi</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>Ilmu Komputer</t>
-  </si>
-  <si>
-    <t>Semester 7</t>
   </si>
 </sst>
 </file>
@@ -448,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74710EFF-C69E-4B4C-BE5E-23A93BF98C3D}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +466,7 @@
     <col min="14" max="14" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -483,25 +477,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -510,9 +501,8 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -523,36 +513,33 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45824</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45870</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45824</v>
-      </c>
-      <c r="H3" s="2">
-        <v>45870</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>